--- a/server/static/files/excels/test.xlsx
+++ b/server/static/files/excels/test.xlsx
@@ -10198,13 +10198,13 @@
     <t>09196426612</t>
   </si>
   <si>
+    <t>سعید</t>
+  </si>
+  <si>
+    <t>مشمولی</t>
+  </si>
+  <si>
     <t>09226015178</t>
-  </si>
-  <si>
-    <t>سعید</t>
-  </si>
-  <si>
-    <t>مشمولی</t>
   </si>
 </sst>
 </file>
@@ -10526,7 +10526,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -10662,7 +10662,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="G3">
         <v>303</v>

--- a/server/static/files/excels/test.xlsx
+++ b/server/static/files/excels/test.xlsx
@@ -10526,7 +10526,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
